--- a/excel-emptable.xlsx
+++ b/excel-emptable.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6562718D-770E-47F6-AF38-98BA3BF533AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D802AF-EEB3-4DC1-AD52-7ABECA7A9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63DE612A-89AB-4AE1-BADC-599C7079BA20}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Flash Fill &amp; Validation" sheetId="1" r:id="rId1"/>
+    <sheet name="VLookup" sheetId="2" r:id="rId2"/>
+    <sheet name="HLookup" sheetId="3" r:id="rId3"/>
+    <sheet name="Data &amp; Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Flash Fill &amp; Validation'!$A$6:$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
-  <si>
-    <t>Shahi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>Emp ID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Full Name (Flash Fill)</t>
-  </si>
-  <si>
     <t>Dept</t>
   </si>
   <si>
@@ -126,7 +123,124 @@
     <t>Lama</t>
   </si>
   <si>
-    <t>Sabina</t>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>ST001</t>
+  </si>
+  <si>
+    <t>Aarav Shrestha</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>9841XXXX01</t>
+  </si>
+  <si>
+    <t>ST002</t>
+  </si>
+  <si>
+    <t>Sita Gurung</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>9860XXXX22</t>
+  </si>
+  <si>
+    <t>ST003</t>
+  </si>
+  <si>
+    <t>Milan Tamang</t>
+  </si>
+  <si>
+    <t>9803XXXX45</t>
+  </si>
+  <si>
+    <t>ST004</t>
+  </si>
+  <si>
+    <t>Pradip Rai</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>9818XXXX99</t>
+  </si>
+  <si>
+    <t>ST005</t>
+  </si>
+  <si>
+    <t>Aasha KC</t>
+  </si>
+  <si>
+    <t>9849XXXX33</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Aarav</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Pradip</t>
+  </si>
+  <si>
+    <t>Aasha</t>
+  </si>
+  <si>
+    <t>Attendance %</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>Bina</t>
+  </si>
+  <si>
+    <t>12C</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Full Name</t>
   </si>
 </sst>
 </file>
@@ -170,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,11 +292,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -495,280 +629,844 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>900</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1400</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1100</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1600</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2500</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2">
+        <v>850</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>105</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2200</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{821FE4FE-F109-4A2D-A665-6BBA4F6B9694}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD3553F-E3BE-4B1E-AC8F-F3DD15C5710F}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3">
+        <v>85</v>
+      </c>
+      <c r="G2" s="3">
+        <v>73</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3">
+        <v>88</v>
+      </c>
+      <c r="F3" s="3">
+        <v>92</v>
+      </c>
+      <c r="G3" s="3">
+        <v>90</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3">
+        <v>75</v>
+      </c>
+      <c r="G4" s="3">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3">
+        <v>82</v>
+      </c>
+      <c r="F5" s="3">
+        <v>80</v>
+      </c>
+      <c r="G5" s="3">
+        <v>88</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3">
+        <v>90</v>
+      </c>
+      <c r="F6" s="3">
+        <v>94</v>
+      </c>
+      <c r="G6" s="3">
+        <v>89</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247FC78A-9639-4B57-B9EA-F332243DA644}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2">
+        <v>90</v>
+      </c>
+      <c r="D4" s="2">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2">
+        <v>88</v>
+      </c>
+      <c r="F4" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A0DB54-3B3C-4EFF-B7FB-6595AD8C4200}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="1" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2">
+        <v>73</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>102</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2">
-        <v>900</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>103</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>104</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1400</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2200</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>106</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1100</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>107</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1600</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2500</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2">
-        <v>850</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>110</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1300</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1500</v>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2">
+        <v>90</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2">
+        <v>70</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2">
+        <v>88</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2">
+        <v>94</v>
+      </c>
+      <c r="E6" s="2">
+        <v>89</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2">
+        <v>55</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2">
+        <v>74</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
